--- a/接口文档/小区api/小区接口_物业端.xlsx
+++ b/接口文档/小区api/小区接口_物业端.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
     <sheet name="目录" sheetId="2" r:id="rId2"/>
     <sheet name="小区申请接口" sheetId="3" r:id="rId3"/>
-    <sheet name="查看小区接口" sheetId="4" r:id="rId4"/>
-    <sheet name="物业注册接口" sheetId="5" r:id="rId5"/>
-    <sheet name="删除物业信息接口" sheetId="7" r:id="rId6"/>
-    <sheet name="删除小区信息接口" sheetId="10" r:id="rId7"/>
+    <sheet name="小区列表接口" sheetId="11" r:id="rId4"/>
+    <sheet name="查看小区接口" sheetId="4" r:id="rId5"/>
+    <sheet name="物业注册接口" sheetId="5" r:id="rId6"/>
+    <sheet name="删除物业信息接口" sheetId="7" r:id="rId7"/>
+    <sheet name="删除小区信息接口" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -611,6 +612,42 @@
   </si>
   <si>
     <t>http://192.168.1.117/api/seller_edit/v1/deleteEstate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小区列表接口
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/seller_edit/v1/findByEstateId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ize</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码 0开始</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +909,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,6 +1023,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1341,186 +1384,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1603,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1621,37 +1664,37 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1668,7 +1711,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="2" t="s">
         <v>87</v>
       </c>
@@ -1683,7 +1726,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="23" t="s">
         <v>88</v>
       </c>
@@ -1743,18 +1786,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1812,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="28" t="s">
         <v>26</v>
       </c>
@@ -1784,7 +1827,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A13" s="44"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="29" t="s">
         <v>28</v>
       </c>
@@ -1799,16 +1842,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="40" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="23" t="s">
         <v>22</v>
       </c>
@@ -1823,7 +1866,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="44"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="23" t="s">
         <v>33</v>
       </c>
@@ -1838,7 +1881,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="44"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1853,7 +1896,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="44"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
@@ -1868,7 +1911,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="24" t="s">
         <v>36</v>
       </c>
@@ -1883,7 +1926,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="24" t="s">
         <v>37</v>
       </c>
@@ -2354,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2372,34 +2415,740 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="40"/>
+      <c r="B5" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="46"/>
+      <c r="B8" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="47"/>
+      <c r="B9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="B10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="B11" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="B12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="B15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="B16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5">
+      <c r="B17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5">
+      <c r="B18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.5">
+      <c r="B19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5">
+      <c r="B20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16.5">
+      <c r="B21" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5">
+      <c r="B22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="25.5" customHeight="1">
+      <c r="B23" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="16.5">
+      <c r="B24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="21" customHeight="1">
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.5">
+      <c r="B27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.5">
+      <c r="B28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16.5">
+      <c r="B29" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.5">
+      <c r="B30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.5">
+      <c r="B31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="16.5">
+      <c r="B32" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16.5">
+      <c r="B33" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="16.5">
+      <c r="B34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="16.5">
+      <c r="B35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16.5">
+      <c r="B36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16.5">
+      <c r="B37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="16.5">
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="16.5">
+      <c r="B39" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="16.5">
+      <c r="B40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="16.5">
+      <c r="B41" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="16.5">
+      <c r="B42" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="16.5">
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="16.5">
+      <c r="B44" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="16.5">
+      <c r="B45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="16.5">
+      <c r="B46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="16.5">
+      <c r="B47" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="16.5">
+      <c r="B48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="16.5">
+      <c r="B49" s="19"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5" ht="16.5">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="66" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="34" t="s">
@@ -2441,18 +3190,18 @@
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="28" t="s">
         <v>86</v>
       </c>
@@ -2467,7 +3216,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="28" t="s">
         <v>26</v>
       </c>
@@ -2496,12 +3245,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
       <c r="B12" s="23" t="s">
@@ -3048,11 +3797,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3070,37 +3819,37 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3117,7 +3866,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="23" t="s">
         <v>129</v>
       </c>
@@ -3236,18 +3985,18 @@
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A15" s="44"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="28" t="s">
         <v>24</v>
       </c>
@@ -3262,7 +4011,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="28" t="s">
         <v>26</v>
       </c>
@@ -3292,12 +4041,12 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="13"/>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" s="11" t="s">
@@ -3452,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
@@ -3474,34 +4223,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -3543,18 +4292,18 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
@@ -3569,7 +4318,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="28" t="s">
         <v>26</v>
       </c>
@@ -3584,7 +4333,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="29" t="s">
         <v>28</v>
       </c>
@@ -3599,20 +4348,20 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="44"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="23"/>
       <c r="C13" s="2"/>
       <c r="E13" s="23"/>
@@ -3888,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E94"/>
   <sheetViews>
@@ -3910,34 +4659,34 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="34" t="s">
@@ -3979,18 +4728,18 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
@@ -4005,7 +4754,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="28" t="s">
         <v>26</v>
       </c>
@@ -4020,7 +4769,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="29" t="s">
         <v>28</v>
       </c>
@@ -4035,20 +4784,20 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="44"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="23"/>
       <c r="C13" s="2"/>
       <c r="E13" s="23"/>
